--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spenc\Desktop\UGA_projects\data_science\DS2_P2\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D710BE8-AC0A-4173-8DCF-72E1F8CB8686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5C51B-654F-42C2-9EFC-627CB40A04E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoMPG" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="32">
   <si>
     <t>Models</t>
   </si>
@@ -87,6 +87,45 @@
   <si>
     <t>5L Neural Network - reLU</t>
   </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Loss Function</t>
+  </si>
+  <si>
+    <t>Global Python Hyperparameters</t>
+  </si>
+  <si>
+    <t>Global Scalation Hyperparameters:</t>
+  </si>
+  <si>
+    <t>Train-Test Split</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>80/20</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>SGDM</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,10 +144,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -122,8 +157,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +196,26 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC5E0B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -444,26 +510,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,82 +656,77 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P999"/>
+  <dimension ref="C1:P997"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -789,494 +963,617 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="9" t="s">
+    <row r="2" spans="3:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="K3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="37">
+        <v>400</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="37">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+    <row r="14" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="8" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="15" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L26" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P26" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="27" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="30" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="18" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="18" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36"/>
-    </row>
-    <row r="24" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="18" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="36"/>
-    </row>
-    <row r="25" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="18" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="18" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="23" t="s">
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2226,17 +2523,17 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K4:O4"/>
+  <mergeCells count="6">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2245,7 +2542,7 @@
   <dimension ref="C1:P1000"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2260,494 +2557,617 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="9" t="s">
+    <row r="2" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="K3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="37">
+        <v>400</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="37">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+    <row r="14" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="8" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="15" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L26" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P26" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="27" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="30" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="18" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="18" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36"/>
-    </row>
-    <row r="24" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="18" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="36"/>
-    </row>
-    <row r="25" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="18" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="18" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="23" t="s">
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3701,11 +4121,13 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="K17:P17"/>
+  <mergeCells count="6">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3717,7 +4139,7 @@
   <dimension ref="C1:P1000"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD27"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3732,494 +4154,617 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="9" t="s">
+    <row r="2" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="K3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="37">
+        <v>400</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="37">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+    <row r="14" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="8" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="15" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L26" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P26" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="27" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="30" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="18" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="18" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36"/>
-    </row>
-    <row r="24" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="18" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="36"/>
-    </row>
-    <row r="25" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="18" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="18" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="23" t="s">
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5173,11 +5718,13 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="K17:P17"/>
+  <mergeCells count="6">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5188,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5204,494 +5751,617 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="9" t="s">
+    <row r="2" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="K3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="37">
+        <v>400</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="37">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+    <row r="14" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="8" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="15" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L26" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P26" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="27" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="30" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="18" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="18" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36"/>
-    </row>
-    <row r="24" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="18" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="36"/>
-    </row>
-    <row r="25" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="18" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="18" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="23" t="s">
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6645,11 +7315,13 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="K17:P17"/>
+  <mergeCells count="6">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6660,15 +7332,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.25" customWidth="1"/>
@@ -6676,494 +7348,617 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="9" t="s">
+    <row r="2" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="K3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="37">
+        <v>400</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="37">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="12" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+    <row r="14" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="18" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="18" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="18" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="18" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="18" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="18" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="18" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="18" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-    </row>
-    <row r="15" spans="3:15" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="8" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="15" t="s">
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D26" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="15" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L26" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M26" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N26" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O26" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P26" s="51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
+    <row r="27" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="30" t="s">
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="18" t="s">
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="48"/>
+    </row>
+    <row r="28" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="18" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-    </row>
-    <row r="21" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="18" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-    </row>
-    <row r="22" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+    </row>
+    <row r="30" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="18" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+    </row>
+    <row r="31" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="36"/>
-    </row>
-    <row r="24" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+    </row>
+    <row r="32" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="18" t="s">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="36"/>
-    </row>
-    <row r="25" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+    </row>
+    <row r="33" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="18" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+    </row>
+    <row r="34" spans="3:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="18" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="36"/>
-    </row>
-    <row r="27" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="23" t="s">
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+    </row>
+    <row r="35" spans="3:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8117,11 +8912,13 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="K17:P17"/>
+  <mergeCells count="6">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
